--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ltbp1-Itgb5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgb5</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.19809637131081</v>
+        <v>6.334389333333334</v>
       </c>
       <c r="H2">
-        <v>6.19809637131081</v>
+        <v>19.003168</v>
       </c>
       <c r="I2">
-        <v>0.1183375979787929</v>
+        <v>0.1087186954512644</v>
       </c>
       <c r="J2">
-        <v>0.1183375979787929</v>
+        <v>0.1087186954512644</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.86031452708108</v>
+        <v>9.460162333333333</v>
       </c>
       <c r="N2">
-        <v>8.86031452708108</v>
+        <v>28.380487</v>
       </c>
       <c r="O2">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="P2">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="Q2">
-        <v>54.9170833189737</v>
+        <v>59.92435137586845</v>
       </c>
       <c r="R2">
-        <v>54.9170833189737</v>
+        <v>539.319162382816</v>
       </c>
       <c r="S2">
-        <v>0.009847227461084535</v>
+        <v>0.008911698558592255</v>
       </c>
       <c r="T2">
-        <v>0.009847227461084535</v>
+        <v>0.008911698558592253</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.19809637131081</v>
+        <v>6.334389333333334</v>
       </c>
       <c r="H3">
-        <v>6.19809637131081</v>
+        <v>19.003168</v>
       </c>
       <c r="I3">
-        <v>0.1183375979787929</v>
+        <v>0.1087186954512644</v>
       </c>
       <c r="J3">
-        <v>0.1183375979787929</v>
+        <v>0.1087186954512644</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.0976596177799</v>
+        <v>46.18256633333333</v>
       </c>
       <c r="N3">
-        <v>46.0976596177799</v>
+        <v>138.547699</v>
       </c>
       <c r="O3">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="P3">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="Q3">
-        <v>285.7177368028824</v>
+        <v>292.5383555678258</v>
       </c>
       <c r="R3">
-        <v>285.7177368028824</v>
+        <v>2632.845200110432</v>
       </c>
       <c r="S3">
-        <v>0.05123228281484865</v>
+        <v>0.04350507901695181</v>
       </c>
       <c r="T3">
-        <v>0.05123228281484865</v>
+        <v>0.0435050790169518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.19809637131081</v>
+        <v>6.334389333333334</v>
       </c>
       <c r="H4">
-        <v>6.19809637131081</v>
+        <v>19.003168</v>
       </c>
       <c r="I4">
-        <v>0.1183375979787929</v>
+        <v>0.1087186954512644</v>
       </c>
       <c r="J4">
-        <v>0.1183375979787929</v>
+        <v>0.1087186954512644</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.6561722693769</v>
+        <v>51.40166966666666</v>
       </c>
       <c r="N4">
-        <v>45.6561722693769</v>
+        <v>154.205009</v>
       </c>
       <c r="O4">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934318</v>
       </c>
       <c r="P4">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934319</v>
       </c>
       <c r="Q4">
-        <v>282.9813556707662</v>
+        <v>325.5981880520569</v>
       </c>
       <c r="R4">
-        <v>282.9813556707662</v>
+        <v>2930.383692468512</v>
       </c>
       <c r="S4">
-        <v>0.05074162005929661</v>
+        <v>0.04842159884123925</v>
       </c>
       <c r="T4">
-        <v>0.05074162005929661</v>
+        <v>0.04842159884123925</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.19809637131081</v>
+        <v>6.334389333333334</v>
       </c>
       <c r="H5">
-        <v>6.19809637131081</v>
+        <v>19.003168</v>
       </c>
       <c r="I5">
-        <v>0.1183375979787929</v>
+        <v>0.1087186954512644</v>
       </c>
       <c r="J5">
-        <v>0.1183375979787929</v>
+        <v>0.1087186954512644</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.8633715079388</v>
+        <v>8.365307333333334</v>
       </c>
       <c r="N5">
-        <v>5.8633715079388</v>
+        <v>25.095922</v>
       </c>
       <c r="O5">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463072</v>
       </c>
       <c r="P5">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463073</v>
       </c>
       <c r="Q5">
-        <v>36.34174166700267</v>
+        <v>52.98911354232179</v>
       </c>
       <c r="R5">
-        <v>36.34174166700267</v>
+        <v>476.9020218808961</v>
       </c>
       <c r="S5">
-        <v>0.00651646764356306</v>
+        <v>0.007880319034481107</v>
       </c>
       <c r="T5">
-        <v>0.00651646764356306</v>
+        <v>0.007880319034481109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>25.4743591829601</v>
+        <v>25.48320566666667</v>
       </c>
       <c r="H6">
-        <v>25.4743591829601</v>
+        <v>76.449617</v>
       </c>
       <c r="I6">
-        <v>0.486371023482967</v>
+        <v>0.4373745802799199</v>
       </c>
       <c r="J6">
-        <v>0.486371023482967</v>
+        <v>0.4373745802799199</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.86031452708108</v>
+        <v>9.460162333333333</v>
       </c>
       <c r="N6">
-        <v>8.86031452708108</v>
+        <v>28.380487</v>
       </c>
       <c r="O6">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="P6">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="Q6">
-        <v>225.7108347368627</v>
+        <v>241.0752623803865</v>
       </c>
       <c r="R6">
-        <v>225.7108347368627</v>
+        <v>2169.677361423479</v>
       </c>
       <c r="S6">
-        <v>0.04047239576026859</v>
+        <v>0.03585170333829758</v>
       </c>
       <c r="T6">
-        <v>0.04047239576026859</v>
+        <v>0.03585170333829758</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>25.4743591829601</v>
+        <v>25.48320566666667</v>
       </c>
       <c r="H7">
-        <v>25.4743591829601</v>
+        <v>76.449617</v>
       </c>
       <c r="I7">
-        <v>0.486371023482967</v>
+        <v>0.4373745802799199</v>
       </c>
       <c r="J7">
-        <v>0.486371023482967</v>
+        <v>0.4373745802799199</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.0976596177799</v>
+        <v>46.18256633333333</v>
       </c>
       <c r="N7">
-        <v>46.0976596177799</v>
+        <v>138.547699</v>
       </c>
       <c r="O7">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="P7">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="Q7">
-        <v>1174.30833859716</v>
+        <v>1176.879836086809</v>
       </c>
       <c r="R7">
-        <v>1174.30833859716</v>
+        <v>10591.91852478128</v>
       </c>
       <c r="S7">
-        <v>0.2105661958128664</v>
+        <v>0.1750206401585621</v>
       </c>
       <c r="T7">
-        <v>0.2105661958128664</v>
+        <v>0.1750206401585621</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>25.4743591829601</v>
+        <v>25.48320566666667</v>
       </c>
       <c r="H8">
-        <v>25.4743591829601</v>
+        <v>76.449617</v>
       </c>
       <c r="I8">
-        <v>0.486371023482967</v>
+        <v>0.4373745802799199</v>
       </c>
       <c r="J8">
-        <v>0.486371023482967</v>
+        <v>0.4373745802799199</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.6561722693769</v>
+        <v>51.40166966666666</v>
       </c>
       <c r="N8">
-        <v>45.6561722693769</v>
+        <v>154.205009</v>
       </c>
       <c r="O8">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934318</v>
       </c>
       <c r="P8">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934319</v>
       </c>
       <c r="Q8">
-        <v>1163.06173130921</v>
+        <v>1309.879319725728</v>
       </c>
       <c r="R8">
-        <v>1163.06173130921</v>
+        <v>11788.91387753155</v>
       </c>
       <c r="S8">
-        <v>0.2085495573929655</v>
+        <v>0.1947997663305604</v>
       </c>
       <c r="T8">
-        <v>0.2085495573929655</v>
+        <v>0.1947997663305605</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>25.4743591829601</v>
+        <v>25.48320566666667</v>
       </c>
       <c r="H9">
-        <v>25.4743591829601</v>
+        <v>76.449617</v>
       </c>
       <c r="I9">
-        <v>0.486371023482967</v>
+        <v>0.4373745802799199</v>
       </c>
       <c r="J9">
-        <v>0.486371023482967</v>
+        <v>0.4373745802799199</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.8633715079388</v>
+        <v>8.365307333333334</v>
       </c>
       <c r="N9">
-        <v>5.8633715079388</v>
+        <v>25.095922</v>
       </c>
       <c r="O9">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463072</v>
       </c>
       <c r="P9">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463073</v>
       </c>
       <c r="Q9">
-        <v>149.3656318163674</v>
+        <v>213.1748472402082</v>
       </c>
       <c r="R9">
-        <v>149.3656318163674</v>
+        <v>1918.573625161874</v>
       </c>
       <c r="S9">
-        <v>0.0267828745168665</v>
+        <v>0.03170247045249984</v>
       </c>
       <c r="T9">
-        <v>0.0267828745168665</v>
+        <v>0.03170247045249984</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>20.7039360336466</v>
+        <v>0.037545</v>
       </c>
       <c r="H10">
-        <v>20.7039360336466</v>
+        <v>0.112635</v>
       </c>
       <c r="I10">
-        <v>0.3952913785382402</v>
+        <v>0.0006443941484995116</v>
       </c>
       <c r="J10">
-        <v>0.3952913785382402</v>
+        <v>0.0006443941484995116</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.86031452708108</v>
+        <v>9.460162333333333</v>
       </c>
       <c r="N10">
-        <v>8.86031452708108</v>
+        <v>28.380487</v>
       </c>
       <c r="O10">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="P10">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="Q10">
-        <v>183.4433852066764</v>
+        <v>0.355181794805</v>
       </c>
       <c r="R10">
-        <v>183.4433852066764</v>
+        <v>3.196636153245</v>
       </c>
       <c r="S10">
-        <v>0.03289338455703061</v>
+        <v>5.282114893406396E-05</v>
       </c>
       <c r="T10">
-        <v>0.03289338455703061</v>
+        <v>5.282114893406396E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>20.7039360336466</v>
+        <v>0.037545</v>
       </c>
       <c r="H11">
-        <v>20.7039360336466</v>
+        <v>0.112635</v>
       </c>
       <c r="I11">
-        <v>0.3952913785382402</v>
+        <v>0.0006443941484995116</v>
       </c>
       <c r="J11">
-        <v>0.3952913785382402</v>
+        <v>0.0006443941484995116</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.0976596177799</v>
+        <v>46.18256633333333</v>
       </c>
       <c r="N11">
-        <v>46.0976596177799</v>
+        <v>138.547699</v>
       </c>
       <c r="O11">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="P11">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="Q11">
-        <v>954.4029960273289</v>
+        <v>1.733924452985</v>
       </c>
       <c r="R11">
-        <v>954.4029960273289</v>
+        <v>15.605320076865</v>
       </c>
       <c r="S11">
-        <v>0.1711347876367391</v>
+        <v>0.0002578619825428248</v>
       </c>
       <c r="T11">
-        <v>0.1711347876367391</v>
+        <v>0.0002578619825428248</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>20.7039360336466</v>
+        <v>0.037545</v>
       </c>
       <c r="H12">
-        <v>20.7039360336466</v>
+        <v>0.112635</v>
       </c>
       <c r="I12">
-        <v>0.3952913785382402</v>
+        <v>0.0006443941484995116</v>
       </c>
       <c r="J12">
-        <v>0.3952913785382402</v>
+        <v>0.0006443941484995116</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.6561722693769</v>
+        <v>51.40166966666666</v>
       </c>
       <c r="N12">
-        <v>45.6561722693769</v>
+        <v>154.205009</v>
       </c>
       <c r="O12">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934318</v>
       </c>
       <c r="P12">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934319</v>
       </c>
       <c r="Q12">
-        <v>945.2624702063291</v>
+        <v>1.929875687635</v>
       </c>
       <c r="R12">
-        <v>945.2624702063291</v>
+        <v>17.368881188715</v>
       </c>
       <c r="S12">
-        <v>0.1694957924200684</v>
+        <v>0.0002870030294676647</v>
       </c>
       <c r="T12">
-        <v>0.1694957924200684</v>
+        <v>0.0002870030294676647</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.037545</v>
+      </c>
+      <c r="H13">
+        <v>0.112635</v>
+      </c>
+      <c r="I13">
+        <v>0.0006443941484995116</v>
+      </c>
+      <c r="J13">
+        <v>0.0006443941484995116</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.365307333333334</v>
+      </c>
+      <c r="N13">
+        <v>25.095922</v>
+      </c>
+      <c r="O13">
+        <v>0.07248356873463072</v>
+      </c>
+      <c r="P13">
+        <v>0.07248356873463073</v>
+      </c>
+      <c r="Q13">
+        <v>0.31407546383</v>
+      </c>
+      <c r="R13">
+        <v>2.826679174470001</v>
+      </c>
+      <c r="S13">
+        <v>4.670798755495818E-05</v>
+      </c>
+      <c r="T13">
+        <v>4.670798755495819E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>26.40889</v>
+      </c>
+      <c r="H14">
+        <v>79.22667000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.4532623301203161</v>
+      </c>
+      <c r="J14">
+        <v>0.4532623301203161</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>9.460162333333333</v>
+      </c>
+      <c r="N14">
+        <v>28.380487</v>
+      </c>
+      <c r="O14">
+        <v>0.08197024919772995</v>
+      </c>
+      <c r="P14">
+        <v>0.08197024919772995</v>
+      </c>
+      <c r="Q14">
+        <v>249.8323864431433</v>
+      </c>
+      <c r="R14">
+        <v>2248.49147798829</v>
+      </c>
+      <c r="S14">
+        <v>0.03715402615190605</v>
+      </c>
+      <c r="T14">
+        <v>0.03715402615190605</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>26.40889</v>
+      </c>
+      <c r="H15">
+        <v>79.22667000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.4532623301203161</v>
+      </c>
+      <c r="J15">
+        <v>0.4532623301203161</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>46.18256633333333</v>
+      </c>
+      <c r="N15">
+        <v>138.547699</v>
+      </c>
+      <c r="O15">
+        <v>0.4001618933742075</v>
+      </c>
+      <c r="P15">
+        <v>0.4001618933742075</v>
+      </c>
+      <c r="Q15">
+        <v>1219.630314214704</v>
+      </c>
+      <c r="R15">
+        <v>10976.67282793233</v>
+      </c>
+      <c r="S15">
+        <v>0.1813783122161507</v>
+      </c>
+      <c r="T15">
+        <v>0.1813783122161507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>20.7039360336466</v>
-      </c>
-      <c r="H13">
-        <v>20.7039360336466</v>
-      </c>
-      <c r="I13">
-        <v>0.3952913785382402</v>
-      </c>
-      <c r="J13">
-        <v>0.3952913785382402</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.8633715079388</v>
-      </c>
-      <c r="N13">
-        <v>5.8633715079388</v>
-      </c>
-      <c r="O13">
-        <v>0.05506675608483171</v>
-      </c>
-      <c r="P13">
-        <v>0.05506675608483171</v>
-      </c>
-      <c r="Q13">
-        <v>121.3948686418709</v>
-      </c>
-      <c r="R13">
-        <v>121.3948686418709</v>
-      </c>
-      <c r="S13">
-        <v>0.02176741392440215</v>
-      </c>
-      <c r="T13">
-        <v>0.02176741392440215</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>26.40889</v>
+      </c>
+      <c r="H16">
+        <v>79.22667000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.4532623301203161</v>
+      </c>
+      <c r="J16">
+        <v>0.4532623301203161</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>51.40166966666666</v>
+      </c>
+      <c r="N16">
+        <v>154.205009</v>
+      </c>
+      <c r="O16">
+        <v>0.4453842886934318</v>
+      </c>
+      <c r="P16">
+        <v>0.4453842886934319</v>
+      </c>
+      <c r="Q16">
+        <v>1357.461040043337</v>
+      </c>
+      <c r="R16">
+        <v>12217.14936039003</v>
+      </c>
+      <c r="S16">
+        <v>0.2018759204921645</v>
+      </c>
+      <c r="T16">
+        <v>0.2018759204921645</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>26.40889</v>
+      </c>
+      <c r="H17">
+        <v>79.22667000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.4532623301203161</v>
+      </c>
+      <c r="J17">
+        <v>0.4532623301203161</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.365307333333334</v>
+      </c>
+      <c r="N17">
+        <v>25.095922</v>
+      </c>
+      <c r="O17">
+        <v>0.07248356873463072</v>
+      </c>
+      <c r="P17">
+        <v>0.07248356873463073</v>
+      </c>
+      <c r="Q17">
+        <v>220.9184811821934</v>
+      </c>
+      <c r="R17">
+        <v>1988.266330639741</v>
+      </c>
+      <c r="S17">
+        <v>0.03285407126009481</v>
+      </c>
+      <c r="T17">
+        <v>0.03285407126009481</v>
       </c>
     </row>
   </sheetData>
